--- a/صيدليات دكتور مصطفي طلعت_2026-01-09_17-47.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-09_17-47.xlsx
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>KATIVAROX SYRUP</t>
+  </si>
+  <si>
+    <t>L-CARNITINE 300MG/ML SYRUP 30ML</t>
   </si>
   <si>
     <t>LEZBERG TRIO 20/5/12.5 TAB</t>
@@ -1855,17 +1861,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>38</v>
+        <v>120.78</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1887,7 +1893,7 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1907,17 +1913,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1933,13 +1939,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -1951,7 +1957,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1959,17 +1965,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1977,7 +1983,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1985,17 +1991,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2011,17 +2017,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2037,17 +2043,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2055,7 +2061,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2063,7 +2069,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
@@ -2073,7 +2079,7 @@
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2081,7 +2087,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2089,13 +2095,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>160.05000000000001</v>
+        <v>24</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2107,7 +2113,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2115,13 +2121,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2133,7 +2139,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2141,17 +2147,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>7</v>
+        <v>160.05000000000001</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2159,7 +2165,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2167,17 +2173,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2185,7 +2191,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2193,17 +2199,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>86.5</v>
+        <v>7</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2219,13 +2225,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2245,17 +2251,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>62</v>
+        <v>86.5</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2277,11 +2283,11 @@
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>282</v>
+        <v>67</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>70</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2297,13 +2303,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>30.5</v>
+        <v>62</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2323,17 +2329,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>31.5</v>
+        <v>282</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2341,7 +2347,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2349,17 +2355,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>60</v>
+        <v>30.5</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2367,7 +2373,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2375,17 +2381,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>123</v>
+        <v>31.5</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2401,13 +2407,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2427,17 +2433,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>26.100000000000001</v>
+        <v>123</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2453,13 +2459,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2471,7 +2477,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2479,17 +2485,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>94.5</v>
+        <v>26.100000000000001</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2497,7 +2503,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2505,13 +2511,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2531,17 +2537,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>96</v>
+        <v>94.5</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2549,7 +2555,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2557,13 +2563,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2575,7 +2581,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2583,13 +2589,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2601,7 +2607,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2609,17 +2615,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2627,7 +2633,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2635,17 +2641,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2653,7 +2659,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2661,17 +2667,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2679,7 +2685,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2687,17 +2693,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2705,7 +2711,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2713,51 +2719,103 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="74" ht="25.5" customHeight="1">
-      <c r="K74" s="10">
-        <v>4352.4899999999998</v>
-      </c>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="11">
+    <row r="74" ht="24.75" customHeight="1">
+      <c r="A74" s="6">
+        <v>71</v>
+      </c>
+      <c t="s" r="B74" s="7">
+        <v>105</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c t="s" r="H74" s="8">
         <v>106</v>
       </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c t="s" r="F75" s="12">
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="9">
+        <v>15</v>
+      </c>
+      <c r="M74" s="9"/>
+      <c t="s" r="N74" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" ht="25.5" customHeight="1">
+      <c r="A75" s="6">
+        <v>72</v>
+      </c>
+      <c t="s" r="B75" s="7">
         <v>107</v>
       </c>
-      <c r="G75" s="12"/>
-      <c r="H75" s="13"/>
-      <c t="s" r="I75" s="14">
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c t="s" r="H75" s="8">
+        <v>95</v>
+      </c>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="9">
+        <v>24</v>
+      </c>
+      <c r="M75" s="9"/>
+      <c t="s" r="N75" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="K76" s="10">
+        <v>4543.2700000000004</v>
+      </c>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="11">
         <v>108</v>
       </c>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="14"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c t="s" r="F77" s="12">
+        <v>109</v>
+      </c>
+      <c r="G77" s="12"/>
+      <c r="H77" s="13"/>
+      <c t="s" r="I77" s="14">
+        <v>110</v>
+      </c>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="221">
+  <mergeCells count="227">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2975,10 +3033,16 @@
     <mergeCell ref="B73:G73"/>
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="I75:N75"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="I77:N77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
